--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/160.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/160.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B5C9BE-E569-4D38-A776-A8165672D681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2BAD29-AA7E-4BD0-98BF-C3BB99A5970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Quantum Engenharia Elétrica Ltda</t>
-  </si>
-  <si>
-    <t>14/02/2023</t>
   </si>
   <si>
     <t>Locação</t>
@@ -1011,9 +1008,6 @@
     <t>2 para os PVCs e 1 para guirlanda</t>
   </si>
   <si>
-    <t>C:\github\myxlsm\orcamentosParaClientes\OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx</t>
-  </si>
-  <si>
     <t>Contato 1</t>
   </si>
   <si>
@@ -1026,7 +1020,16 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\138.xlsx</t>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\OrcamentosParaClientes\São José - Páscoa\159.xlsx</t>
+  </si>
+  <si>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\159.xlsx</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\OrcamentosParaClientes\São José - Páscoa\160.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1428,22 +1431,25 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="F2" t="s">
         <v>324</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>325</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -1452,7 +1458,7 @@
         <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -1471,43 +1477,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1515,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1536,19 +1542,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H3" s="1">
         <v>55.9</v>
@@ -1557,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
         <v>151</v>
-      </c>
-      <c r="L3" t="s">
-        <v>152</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
@@ -1583,43 +1589,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1627,35 +1633,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>197</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16270</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="1">
-        <v>9762</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>199</v>
-      </c>
-      <c r="L2" t="s">
-        <v>200</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>9762</v>
+        <v>16270</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1663,35 +1669,35 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7150</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>201</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4290</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>202</v>
-      </c>
-      <c r="L3" t="s">
-        <v>203</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>4290</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1699,38 +1705,38 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>117</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>118</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11041.18</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6624.71</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>120</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>121</v>
-      </c>
-      <c r="L4" t="s">
-        <v>122</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>6624.71</v>
+        <v>11041.18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1738,38 +1744,38 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>204</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>205</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>206</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="1">
+        <v>6302.08</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="1">
-        <v>3781.25</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>208</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>209</v>
-      </c>
-      <c r="L5" t="s">
-        <v>210</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>3781.25</v>
+        <v>6302.08</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1777,38 +1783,38 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>211</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6101.57</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>212</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3660.94</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>213</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>3660.94</v>
+        <v>6101.57</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1816,38 +1822,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
         <v>215</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3088.81</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>216</v>
       </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1853.29</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>217</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>218</v>
-      </c>
-      <c r="L7" t="s">
-        <v>219</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1853.29</v>
+        <v>3088.81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1855,35 +1861,35 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>220</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2440.6999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>221</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1464.42</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>222</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M12" si="1">C8*H8</f>
-        <v>1464.42</v>
+        <v>2440.6999999999998</v>
       </c>
       <c r="N8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1891,38 +1897,38 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6084.53</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>224</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3650.72</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>225</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>226</v>
-      </c>
-      <c r="L9" t="s">
-        <v>227</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>3650.72</v>
+        <v>6084.53</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1930,35 +1936,35 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>102</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>39</v>
       </c>
       <c r="H10" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1966,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1975,26 +1981,26 @@
         <v>50</v>
       </c>
       <c r="H11" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>109</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -2002,38 +2008,38 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3477.68</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>228</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2434.38</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>229</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>2434.38</v>
+        <v>3477.68</v>
       </c>
       <c r="N12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -2041,19 +2047,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1">
         <v>58.5</v>
@@ -2062,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s">
         <v>161</v>
-      </c>
-      <c r="L13" t="s">
-        <v>162</v>
       </c>
       <c r="M13">
         <f t="shared" ref="M13:M18" si="2">C13*H13</f>
@@ -2077,19 +2083,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2101,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s">
         <v>164</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>165</v>
-      </c>
-      <c r="L14" t="s">
-        <v>166</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -2119,38 +2125,38 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1">
+        <v>900.72</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>231</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="1">
-        <v>540.42999999999995</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>232</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>233</v>
-      </c>
-      <c r="L15" t="s">
-        <v>234</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>540.42999999999995</v>
+        <v>900.72</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2158,38 +2164,38 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1">
+        <v>746.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" t="s">
         <v>235</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="1">
-        <v>447.9</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>232</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>236</v>
-      </c>
-      <c r="L16" t="s">
-        <v>237</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>447.9</v>
+        <v>746.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2197,38 +2203,38 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1419.79</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" t="s">
         <v>238</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="1">
-        <v>851.87</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>239</v>
-      </c>
-      <c r="L17" t="s">
-        <v>240</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>851.87</v>
+        <v>1419.79</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2236,38 +2242,38 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1">
+        <v>997.09</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="1">
-        <v>598.26</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>74</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>75</v>
-      </c>
-      <c r="L18" t="s">
-        <v>76</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>1196.52</v>
+        <v>1994.18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2275,38 +2281,38 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1">
-        <v>237.94</v>
+        <v>396.57</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
         <v>78</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>79</v>
-      </c>
-      <c r="L19" t="s">
-        <v>80</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19:M24" si="3">C19*H19</f>
-        <v>475.88</v>
+        <v>793.14</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2314,32 +2320,32 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4698.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
         <v>241</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2818.92</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>242</v>
-      </c>
-      <c r="L20" t="s">
-        <v>243</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>2818.92</v>
+        <v>4698.2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2347,32 +2353,32 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" t="s">
         <v>244</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>245</v>
-      </c>
-      <c r="L21" t="s">
-        <v>246</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2380,32 +2386,32 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>131</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>132</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>133</v>
-      </c>
-      <c r="L22" t="s">
-        <v>134</v>
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2413,32 +2419,32 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
         <v>247</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>248</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>249</v>
-      </c>
-      <c r="L23" t="s">
-        <v>250</v>
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2446,32 +2452,32 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>251</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>252</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>253</v>
-      </c>
-      <c r="L24" t="s">
-        <v>254</v>
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2479,38 +2485,38 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1">
+        <v>679.89</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
         <v>255</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="1">
-        <v>407.93</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>256</v>
-      </c>
-      <c r="L25" t="s">
-        <v>257</v>
       </c>
       <c r="M25">
         <f>C25*H25</f>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2518,38 +2524,38 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="1">
+        <v>679.89</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>135</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="1">
-        <v>407.93</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>136</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>137</v>
-      </c>
-      <c r="L26" t="s">
-        <v>138</v>
       </c>
       <c r="M26">
         <f>C26*H26</f>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2557,38 +2563,38 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="1">
+        <v>634.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>139</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="1">
-        <v>380.76</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>140</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>141</v>
-      </c>
-      <c r="L27" t="s">
-        <v>142</v>
       </c>
       <c r="M27">
         <f>C27*H27</f>
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2596,38 +2602,38 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="1">
+        <v>634.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>258</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="1">
-        <v>380.76</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>259</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>260</v>
-      </c>
-      <c r="L28" t="s">
-        <v>261</v>
       </c>
       <c r="M28">
         <f>C28*H28</f>
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2635,7 +2641,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2644,23 +2650,23 @@
         <v>100</v>
       </c>
       <c r="H29" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" t="s">
         <v>111</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>112</v>
-      </c>
-      <c r="L29" t="s">
-        <v>113</v>
       </c>
       <c r="M29">
         <f>C29*H29</f>
-        <v>1144</v>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -2679,43 +2685,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2723,16 +2729,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>188</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>189</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
       </c>
       <c r="G2">
         <v>315</v>
@@ -2744,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
@@ -2756,16 +2762,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
         <v>193</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
       </c>
       <c r="G3">
         <v>261</v>
@@ -2777,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
@@ -2789,19 +2795,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1">
         <v>58.5</v>
@@ -2810,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
         <v>161</v>
-      </c>
-      <c r="L4" t="s">
-        <v>162</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
@@ -2825,19 +2831,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2849,13 +2855,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" t="s">
         <v>164</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>165</v>
-      </c>
-      <c r="L5" t="s">
-        <v>166</v>
       </c>
       <c r="M5">
         <f>C5*H5</f>
@@ -2878,43 +2884,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2922,35 +2928,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>156</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1">
+        <v>29000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>157</v>
-      </c>
-      <c r="H2" s="1">
-        <v>21170</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>158</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>21170</v>
+        <v>29000</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2958,19 +2964,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1">
         <v>58.5</v>
@@ -2979,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
         <v>161</v>
-      </c>
-      <c r="L3" t="s">
-        <v>162</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -2994,19 +3000,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3018,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" t="s">
         <v>164</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>165</v>
-      </c>
-      <c r="L4" t="s">
-        <v>166</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -3036,35 +3042,35 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3072,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3081,26 +3087,26 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
         <v>107</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>108</v>
-      </c>
-      <c r="L6" t="s">
-        <v>109</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3108,7 +3114,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3120,29 +3126,29 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1">
-        <v>3649.39</v>
+        <v>6082.31</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" t="s">
         <v>169</v>
-      </c>
-      <c r="L7" t="s">
-        <v>170</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3649.39</v>
+        <v>6082.31</v>
       </c>
       <c r="N7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
@@ -3150,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -3162,14 +3168,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="259.2" x14ac:dyDescent="0.3">
@@ -3177,26 +3183,26 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="M9">
         <f>C9*H9</f>
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3204,41 +3210,41 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>178</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>179</v>
       </c>
-      <c r="E10" t="s">
-        <v>180</v>
-      </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>864</v>
       </c>
       <c r="H10" s="1">
-        <v>4555.95</v>
+        <v>7593.25</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" t="s">
         <v>181</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>182</v>
-      </c>
-      <c r="L10" t="s">
-        <v>183</v>
       </c>
       <c r="M10">
         <f>C10*H10</f>
-        <v>4555.95</v>
+        <v>7593.25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3246,35 +3252,35 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>184</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <v>55</v>
       </c>
       <c r="H11" s="1">
-        <v>3729.76</v>
+        <v>5328.23</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11">
         <f>C11*H11</f>
-        <v>3729.76</v>
+        <v>5328.23</v>
       </c>
     </row>
   </sheetData>
@@ -3293,43 +3299,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3337,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>180</v>
@@ -3358,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -3367,23 +3373,23 @@
         <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>343.2</v>
+        <v>429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" t="s">
         <v>146</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>147</v>
-      </c>
-      <c r="L3" t="s">
-        <v>148</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
-        <v>5148</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3391,19 +3397,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="1">
         <v>55.9</v>
@@ -3412,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" t="s">
         <v>151</v>
-      </c>
-      <c r="L4" t="s">
-        <v>152</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
@@ -3438,43 +3444,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3482,35 +3488,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>63890.45</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>35139.75</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>35139.75</v>
+        <v>63890.45</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3518,38 +3524,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11041.18</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6624.71</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>120</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>121</v>
-      </c>
-      <c r="L3" t="s">
-        <v>122</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>6624.71</v>
+        <v>11041.18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3557,41 +3563,41 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1">
+        <v>4518.6499999999996</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="1">
-        <v>2711.19</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>126</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>127</v>
-      </c>
-      <c r="L4" t="s">
-        <v>128</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5422.38</v>
+        <v>9037.2999999999993</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3599,35 +3605,35 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3635,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3644,26 +3650,26 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
         <v>107</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>108</v>
-      </c>
-      <c r="L6" t="s">
-        <v>109</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3671,32 +3677,32 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>131</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>132</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>133</v>
-      </c>
-      <c r="L7" t="s">
-        <v>134</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3704,38 +3710,38 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1">
+        <v>679.89</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>135</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="1">
-        <v>407.93</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>136</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>137</v>
-      </c>
-      <c r="L8" t="s">
-        <v>138</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3743,38 +3749,38 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="1">
+        <v>634.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>139</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="1">
-        <v>380.76</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>140</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>141</v>
-      </c>
-      <c r="L9" t="s">
-        <v>142</v>
       </c>
       <c r="M9">
         <f>C9*H9</f>
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3782,38 +3788,38 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1">
+        <v>997.09</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="1">
-        <v>598.26</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>76</v>
       </c>
       <c r="M10">
         <f>C10*H10</f>
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3821,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3830,23 +3836,23 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
       </c>
       <c r="M11">
         <f>C11*H11</f>
-        <v>457.6</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3865,43 +3871,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3909,38 +3915,38 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1">
+        <v>67990</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1">
-        <v>37394.5</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>37394.5</v>
+        <v>67990</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3948,32 +3954,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1">
+        <v>10392.82</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6235.69</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>6235.69</v>
+        <v>10392.82</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3981,38 +3987,38 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1">
+        <v>8656.58</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1">
-        <v>5193.95</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5193.95</v>
+        <v>8656.58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4020,38 +4026,38 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="1">
+        <v>11045.07</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="1">
-        <v>6627.04</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>6627.04</v>
+        <v>11045.07</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -4059,32 +4065,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1">
+        <v>900.77</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="1">
-        <v>540.46</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>540.46</v>
+        <v>900.77</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -4092,32 +4098,32 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1">
-        <v>447.88</v>
+        <v>746.47</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>447.88</v>
+        <v>746.47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4125,32 +4131,32 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
       <c r="H8" s="1">
-        <v>811.3</v>
+        <v>1352.17</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M13" si="1">C8*H8</f>
-        <v>811.3</v>
+        <v>1352.17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4158,38 +4164,38 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6406.65</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3843.99</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>3843.99</v>
+        <v>6406.65</v>
       </c>
       <c r="N9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4197,38 +4203,38 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1">
+        <v>997.09</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="1">
-        <v>598.26</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>74</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>76</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -4236,38 +4242,38 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>396.57</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1">
-        <v>237.94</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>78</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>79</v>
-      </c>
-      <c r="L11" t="s">
-        <v>80</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>237.94</v>
+        <v>396.57</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4275,32 +4281,32 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H12" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>83</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" t="s">
-        <v>85</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4308,32 +4314,32 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1585.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="1">
-        <v>951.54</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>87</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" t="s">
-        <v>89</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4341,32 +4347,32 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1">
+        <v>679.89</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>90</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1">
-        <v>407.93</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>91</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:M19" si="2">C14*H14</f>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4374,38 +4380,38 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1">
+        <v>679.89</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>92</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1">
-        <v>407.93</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>93</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>94</v>
-      </c>
-      <c r="L15" t="s">
-        <v>95</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4413,38 +4419,38 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="1">
+        <v>634.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="1">
-        <v>380.76</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>99</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>101</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -4452,35 +4458,35 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>102</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>103</v>
       </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17">
         <v>39</v>
       </c>
       <c r="H17" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4488,7 +4494,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4497,23 +4503,23 @@
         <v>50</v>
       </c>
       <c r="H18" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" t="s">
         <v>107</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>108</v>
-      </c>
-      <c r="L18" t="s">
-        <v>109</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4521,7 +4527,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4530,23 +4536,23 @@
         <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
         <v>111</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" t="s">
-        <v>113</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>915.2</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -4610,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4618,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4640,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4642,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4650,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4658,7 +4664,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4674,7 +4680,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4682,7 +4688,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4690,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4717,43 +4723,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4772,43 +4778,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -4816,19 +4822,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>286</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>287</v>
-      </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1">
         <v>2275</v>
@@ -4837,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" t="s">
         <v>288</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>289</v>
-      </c>
-      <c r="L2" t="s">
-        <v>290</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
@@ -4855,19 +4861,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>291</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>292</v>
-      </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1">
         <v>2912</v>
@@ -4876,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L3" t="s">
         <v>293</v>
-      </c>
-      <c r="L3" t="s">
-        <v>294</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
@@ -4891,35 +4897,35 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>102</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4927,19 +4933,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="1">
         <v>55.9</v>
@@ -4948,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" t="s">
         <v>151</v>
-      </c>
-      <c r="L5" t="s">
-        <v>152</v>
       </c>
       <c r="M5">
         <f>C5*H5</f>
@@ -4963,7 +4969,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4972,26 +4978,26 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
         <v>107</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>108</v>
-      </c>
-      <c r="L6" t="s">
-        <v>109</v>
       </c>
       <c r="M6">
         <f>C6*H6</f>
-        <v>343.20000000000005</v>
+        <v>429</v>
       </c>
       <c r="N6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5010,43 +5016,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -5054,38 +5060,38 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12803.58</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>297</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7682.15</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>299</v>
-      </c>
-      <c r="L2" t="s">
-        <v>300</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>7682.15</v>
+        <v>12803.58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5093,38 +5099,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
         <v>301</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>302</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1">
+        <v>7099.76</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>303</v>
       </c>
-      <c r="H3" s="1">
-        <v>4259.8500000000004</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>304</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>305</v>
-      </c>
-      <c r="L3" t="s">
-        <v>306</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>4259.8500000000004</v>
+        <v>7099.76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -5132,32 +5138,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8771.1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>307</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5262.66</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>308</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5262.66</v>
+        <v>8771.1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5165,32 +5171,32 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>309</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4975.3599999999997</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>310</v>
-      </c>
-      <c r="E5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2985.22</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>311</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>2985.22</v>
+        <v>4975.3599999999997</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -5198,32 +5204,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2619.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>312</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1571.7</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>313</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>1571.7</v>
+        <v>2619.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -5231,38 +5237,38 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="1">
+        <v>4518.6499999999996</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="1">
-        <v>2711.19</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>126</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>127</v>
-      </c>
-      <c r="L7" t="s">
-        <v>128</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>2711.19</v>
+        <v>4518.6499999999996</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -5270,35 +5276,35 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8">
         <v>39</v>
       </c>
       <c r="H8" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5306,7 +5312,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5315,26 +5321,26 @@
         <v>50</v>
       </c>
       <c r="H9" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
       </c>
       <c r="M9">
         <f>C9*H9</f>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5342,7 +5348,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -5354,13 +5360,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K10" t="s">
         <v>315</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>316</v>
-      </c>
-      <c r="L10" t="s">
-        <v>317</v>
       </c>
       <c r="M10">
         <f>C10*H10</f>
@@ -5372,7 +5378,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -5381,23 +5387,23 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
       </c>
       <c r="M11">
         <f>C11*H11</f>
-        <v>457.6</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5416,43 +5422,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -5460,38 +5466,38 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1">
+        <v>927.37</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>268</v>
       </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1">
-        <v>556.41999999999996</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>269</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>270</v>
-      </c>
-      <c r="L2" t="s">
-        <v>271</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>3894.9399999999996</v>
+        <v>6491.59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5499,19 +5505,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -5523,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" t="s">
         <v>278</v>
       </c>
-      <c r="K3" t="s">
-        <v>279</v>
-      </c>
       <c r="L3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -5541,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5553,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -5565,7 +5571,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5">
         <v>140</v>
@@ -5574,10 +5580,10 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -5589,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" t="s">
         <v>283</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>284</v>
-      </c>
-      <c r="L5" t="s">
-        <v>285</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -5607,19 +5613,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1">
         <v>2275</v>
@@ -5628,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" t="s">
         <v>288</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>289</v>
-      </c>
-      <c r="L6" t="s">
-        <v>290</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -5646,19 +5652,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1">
         <v>2912</v>
@@ -5667,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" t="s">
         <v>293</v>
-      </c>
-      <c r="L7" t="s">
-        <v>294</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -5682,7 +5688,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -5691,26 +5697,26 @@
         <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
         <v>107</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>108</v>
-      </c>
-      <c r="L8" t="s">
-        <v>109</v>
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>572</v>
+        <v>715</v>
       </c>
       <c r="N8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5729,43 +5735,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5773,35 +5779,35 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>2741.31</v>
+        <v>3916.15</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
-        <v>2741.31</v>
+        <v>3916.15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5809,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5818,23 +5824,23 @@
         <v>50</v>
       </c>
       <c r="H3" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
         <v>107</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>108</v>
-      </c>
-      <c r="L3" t="s">
-        <v>109</v>
       </c>
       <c r="M3">
         <f>C3*H3</f>
-        <v>114.4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5842,38 +5848,38 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1">
+        <v>927.37</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>268</v>
       </c>
-      <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="1">
-        <v>556.41999999999996</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>269</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>270</v>
-      </c>
-      <c r="L4" t="s">
-        <v>271</v>
       </c>
       <c r="M4">
         <f>C4*H4</f>
-        <v>1112.8399999999999</v>
+        <v>1854.74</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -5881,7 +5887,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5890,23 +5896,23 @@
         <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" t="s">
         <v>273</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>274</v>
-      </c>
-      <c r="L5" t="s">
-        <v>275</v>
       </c>
       <c r="M5">
         <f>C5*H5</f>
-        <v>2080</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>
